--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Groen/resultaterG.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Groen/resultaterG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="13220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -935,22 +935,22 @@
       </c>
       <c r="F23">
         <f>(E24+E25)/2</f>
-        <v>1.6185499999999999</v>
+        <v>1.73495</v>
       </c>
       <c r="G23">
-        <v>1.6705000000000001</v>
+        <v>1.6791</v>
       </c>
       <c r="H23">
         <f>G23-F23</f>
-        <v>5.1950000000000163E-2</v>
+        <v>-5.5849999999999955E-2</v>
       </c>
       <c r="J23">
         <f>F23+H23*1</f>
-        <v>1.6705000000000001</v>
+        <v>1.6791</v>
       </c>
       <c r="K23">
         <f>F23+(H23*90)</f>
-        <v>6.2940500000000146</v>
+        <v>-3.291549999999996</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -960,11 +960,11 @@
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>1.897</v>
       </c>
       <c r="E24">
-        <v>1.5504</v>
+        <v>1.7810999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -978,7 +978,7 @@
         <v>1.6728000000000001</v>
       </c>
       <c r="E25">
-        <v>1.6867000000000001</v>
+        <v>1.6888000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -993,22 +993,22 @@
       </c>
       <c r="F27">
         <f>(E28+E29)/2</f>
-        <v>1.73495</v>
+        <v>1.6185499999999999</v>
       </c>
       <c r="G27">
-        <v>1.6791</v>
+        <v>1.6705000000000001</v>
       </c>
       <c r="H27">
         <f>G27-F27</f>
-        <v>-5.5849999999999955E-2</v>
+        <v>5.1950000000000163E-2</v>
       </c>
       <c r="J27">
         <f>F27+H27*1</f>
-        <v>1.6791</v>
+        <v>1.6705000000000001</v>
       </c>
       <c r="K27">
         <f>F27+(H27*90)</f>
-        <v>-3.291549999999996</v>
+        <v>6.2940500000000146</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1022,7 +1022,7 @@
         <v>1.3368</v>
       </c>
       <c r="E28">
-        <v>1.7810999999999999</v>
+        <v>1.5504</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1036,7 +1036,7 @@
         <v>1.6677999999999999</v>
       </c>
       <c r="E29">
-        <v>1.6888000000000001</v>
+        <v>1.6867000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Groen/resultaterG.xlsx
+++ b/rapportAfsnit/gPilotforsoeg/Databehandling/Acc/Groen/resultaterG.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="15580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -596,7 +596,7 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
